--- a/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
+++ b/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
@@ -20,23 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>Nota 3</t>
-  </si>
-  <si>
-    <t>Nota 4</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>Situação</t>
-  </si>
-  <si>
     <t>Turma 462 - Outubro 2017</t>
   </si>
   <si>
@@ -91,9 +79,6 @@
     <t>99795-9471</t>
   </si>
   <si>
-    <t>mah.souza89@gmail.com</t>
-  </si>
-  <si>
     <t>99144-6928</t>
   </si>
   <si>
@@ -119,6 +104,36 @@
   </si>
   <si>
     <t>98121-9622</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Aula 1</t>
+  </si>
+  <si>
+    <t>Aula 2</t>
+  </si>
+  <si>
+    <t>Aula 3</t>
+  </si>
+  <si>
+    <t>Aula 4</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>ALESSANDRA CAROLINA WINCLER</t>
+  </si>
+  <si>
+    <t>caroolina.w@hotmail.com</t>
+  </si>
+  <si>
+    <t>99735-4901</t>
+  </si>
+  <si>
+    <t>mah.souza89@gmail.com;</t>
   </si>
 </sst>
 </file>
@@ -216,17 +231,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -273,7 +289,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5536923" y="0"/>
+          <a:off x="7336090" y="0"/>
           <a:ext cx="1167388" cy="361629"/>
           <a:chOff x="9009915" y="332447"/>
           <a:chExt cx="3182085" cy="978406"/>
@@ -671,210 +687,244 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542D85D0-A131-449A-8072-5CB4B307F076}">
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
-    <col min="5" max="7" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
+    <col min="5" max="8" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="2:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -890,8 +940,9 @@
     <hyperlink ref="C13" r:id="rId6" xr:uid="{6CAC7515-5E92-457F-B577-EF9450993196}"/>
     <hyperlink ref="C7" r:id="rId7" xr:uid="{BEB8ED9F-99D3-43CC-B133-36D73F655895}"/>
     <hyperlink ref="C14" r:id="rId8" xr:uid="{BAD6259E-A1F3-4D11-B2E9-F190FD0891E9}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{E2ADDB2C-915D-48C2-9447-7036F7196E04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
+++ b/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -10,6 +10,9 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Alunos" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Alunos!$B$6:$Z$15</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Nome</t>
   </si>
@@ -106,9 +109,6 @@
     <t>98121-9622</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Aula 1</t>
   </si>
   <si>
@@ -134,6 +134,60 @@
   </si>
   <si>
     <t>mah.souza89@gmail.com;</t>
+  </si>
+  <si>
+    <t>Aula 5</t>
+  </si>
+  <si>
+    <t>Aula 6</t>
+  </si>
+  <si>
+    <t>Aula 7</t>
+  </si>
+  <si>
+    <t>Aula 8</t>
+  </si>
+  <si>
+    <t>Aula 9</t>
+  </si>
+  <si>
+    <t>Aula 10</t>
+  </si>
+  <si>
+    <t>Aula 11</t>
+  </si>
+  <si>
+    <t>Aula 12</t>
+  </si>
+  <si>
+    <t>Aula 13</t>
+  </si>
+  <si>
+    <t>Aula 14</t>
+  </si>
+  <si>
+    <t>Aula 15</t>
+  </si>
+  <si>
+    <t>Aula 16</t>
+  </si>
+  <si>
+    <t>Aula 17</t>
+  </si>
+  <si>
+    <t>Aula 18</t>
+  </si>
+  <si>
+    <t>Aula 19</t>
+  </si>
+  <si>
+    <t>Aula 20</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>% Presença</t>
   </si>
 </sst>
 </file>
@@ -227,9 +281,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -239,14 +294,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -265,14 +321,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>107673</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>163236</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57978</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161166</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>171129</xdr:rowOff>
     </xdr:to>
@@ -289,8 +345,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7336090" y="0"/>
-          <a:ext cx="1167388" cy="361629"/>
+          <a:off x="6298924" y="0"/>
+          <a:ext cx="1204430" cy="361629"/>
           <a:chOff x="9009915" y="332447"/>
           <a:chExt cx="3182085" cy="978406"/>
         </a:xfrm>
@@ -685,23 +741,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542D85D0-A131-449A-8072-5CB4B307F076}">
-  <dimension ref="B1:K17"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:Z17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C14" sqref="C7:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
-    <col min="5" max="8" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="24" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
@@ -714,8 +774,23 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -726,11 +801,26 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
     </row>
-    <row r="3" spans="2:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -741,19 +831,73 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
+      <c r="I6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -764,13 +908,39 @@
         <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4">
+        <f>COUNTIF(E7:X7,"ok")</f>
+        <v>2</v>
+      </c>
+      <c r="Z7" s="7">
+        <f>Y7/20</f>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="8" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -781,15 +951,41 @@
         <v>13</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4">
+        <f t="shared" ref="Y8:Y15" si="0">COUNTIF(E8:X8,"ok")</f>
+        <v>3</v>
+      </c>
+      <c r="Z8" s="7">
+        <f t="shared" ref="Z8:Z15" si="1">Y8/20</f>
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="9" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -800,16 +996,37 @@
         <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="7" t="s">
-        <v>28</v>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -820,15 +1037,41 @@
         <v>15</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Z10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="11" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -839,15 +1082,41 @@
         <v>16</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Z11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="12" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -858,15 +1127,41 @@
         <v>17</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Z12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="13" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -877,47 +1172,123 @@
         <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="14" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="7">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="16" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -925,11 +1296,36 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="7"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="B6:Z15" xr:uid="{A7CF0FF9-8B01-48A5-A2F3-876BF07E5A20}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="B1:Z2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" xr:uid="{EB87231A-5FDC-498C-95A0-F031E3DA1F9C}"/>

--- a/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
+++ b/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Nome</t>
   </si>
@@ -58,9 +58,6 @@
     <t>MARIANA DE SOUZA SOARES RODRIGUES</t>
   </si>
   <si>
-    <t>e-mail</t>
-  </si>
-  <si>
     <t>Whats App</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>% Presença</t>
+  </si>
+  <si>
+    <t>E-mail</t>
   </si>
 </sst>
 </file>
@@ -345,8 +345,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6298924" y="0"/>
-          <a:ext cx="1204430" cy="361629"/>
+          <a:off x="6302531" y="0"/>
+          <a:ext cx="1192885" cy="361629"/>
           <a:chOff x="9009915" y="332447"/>
           <a:chExt cx="3182085" cy="978406"/>
         </a:xfrm>
@@ -741,18 +741,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542D85D0-A131-449A-8072-5CB4B307F076}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:Z17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C7:C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="24" width="10.140625" style="1" bestFit="1" customWidth="1"/>
@@ -825,76 +828,76 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -902,19 +905,21 @@
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -933,11 +938,11 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4">
         <f>COUNTIF(E7:X7,"ok")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z7" s="7">
         <f>Y7/20</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -945,21 +950,23 @@
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -978,11 +985,11 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4">
         <f t="shared" ref="Y8:Y15" si="0">COUNTIF(E8:X8,"ok")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z8" s="7">
         <f t="shared" ref="Z8:Z15" si="1">Y8/20</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -990,13 +997,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1031,21 +1038,23 @@
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1064,11 +1073,11 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z10" s="7">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1076,21 +1085,23 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1109,11 +1120,11 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z11" s="7">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1121,21 +1132,23 @@
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1154,11 +1167,11 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z12" s="7">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1166,19 +1179,21 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1197,11 +1212,11 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z13" s="7">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1209,19 +1224,21 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1240,26 +1257,26 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z14" s="7">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1317,13 +1334,7 @@
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B6:Z15" xr:uid="{A7CF0FF9-8B01-48A5-A2F3-876BF07E5A20}">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B6:Z15" xr:uid="{A7CF0FF9-8B01-48A5-A2F3-876BF07E5A20}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:Z2"/>
   </mergeCells>

--- a/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
+++ b/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>Nome</t>
   </si>
@@ -345,8 +345,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6302531" y="0"/>
-          <a:ext cx="1192885" cy="361629"/>
+          <a:off x="4423509" y="0"/>
+          <a:ext cx="2145384" cy="361629"/>
           <a:chOff x="9009915" y="332447"/>
           <a:chExt cx="3182085" cy="978406"/>
         </a:xfrm>
@@ -724,10 +724,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -743,25 +743,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542D85D0-A131-449A-8072-5CB4B307F076}">
   <dimension ref="B1:Z17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7:C14"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="24" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="16.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -920,7 +913,9 @@
       <c r="H7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -938,11 +933,11 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4">
         <f>COUNTIF(E7:X7,"ok")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z7" s="7">
         <f>Y7/20</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -967,7 +962,9 @@
       <c r="H8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -985,11 +982,11 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4">
         <f t="shared" ref="Y8:Y15" si="0">COUNTIF(E8:X8,"ok")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z8" s="7">
         <f t="shared" ref="Z8:Z15" si="1">Y8/20</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1055,7 +1052,9 @@
       <c r="H10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1073,11 +1072,11 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z10" s="7">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1102,7 +1101,9 @@
       <c r="H11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1120,11 +1121,11 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z11" s="7">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1149,7 +1150,9 @@
       <c r="H12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1167,11 +1170,11 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z12" s="7">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1239,7 +1242,9 @@
       <c r="H14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1257,11 +1262,11 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z14" s="7">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1280,7 +1285,9 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="I15" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1298,11 +1305,11 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="7">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
+++ b/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
   <si>
     <t>Nome</t>
   </si>
@@ -741,13 +741,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542D85D0-A131-449A-8072-5CB4B307F076}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:Z17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C7:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,7 +917,9 @@
       <c r="I7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -933,14 +936,14 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4">
         <f>COUNTIF(E7:X7,"ok")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z7" s="7">
         <f>Y7/20</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1055,7 +1058,9 @@
       <c r="I10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -1072,11 +1077,11 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z10" s="7">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1104,7 +1109,9 @@
       <c r="I11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1121,11 +1128,11 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z11" s="7">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1153,7 +1160,9 @@
       <c r="I12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1170,11 +1179,11 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z12" s="7">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1198,7 +1207,9 @@
         <v>31</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1215,11 +1226,11 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="7">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1245,7 +1256,9 @@
       <c r="I14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1262,14 +1275,14 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z14" s="7">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1341,7 +1354,13 @@
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B6:Z15" xr:uid="{A7CF0FF9-8B01-48A5-A2F3-876BF07E5A20}"/>
+  <autoFilter ref="B6:Z15" xr:uid="{A7CF0FF9-8B01-48A5-A2F3-876BF07E5A20}">
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B1:Z2"/>
   </mergeCells>

--- a/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
+++ b/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
   <si>
     <t>Nome</t>
   </si>
@@ -748,7 +748,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C7:C14"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C8:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -969,7 +969,9 @@
         <v>31</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -985,11 +987,11 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4">
         <f t="shared" ref="Y8:Y15" si="0">COUNTIF(E8:X8,"ok")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z8" s="7">
         <f t="shared" ref="Z8:Z15" si="1">Y8/20</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1061,7 +1063,9 @@
       <c r="J10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1077,11 +1081,11 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z10" s="7">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1112,7 +1116,9 @@
       <c r="J11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -1128,11 +1134,11 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z11" s="7">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="12" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1163,7 +1169,9 @@
       <c r="J12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -1179,14 +1187,14 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z12" s="7">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:26" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1233,7 +1241,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:26" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1355,7 +1363,7 @@
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="B6:Z15" xr:uid="{A7CF0FF9-8B01-48A5-A2F3-876BF07E5A20}">
-    <filterColumn colId="8">
+    <filterColumn colId="9">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>

--- a/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
+++ b/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Alunos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Alunos!$B$6:$Z$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Alunos!$B$6:$AB$15</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t>Nome</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>E-mail</t>
+  </si>
+  <si>
+    <t>Faltas</t>
+  </si>
+  <si>
+    <t>Aulas</t>
   </si>
 </sst>
 </file>
@@ -742,23 +748,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542D85D0-A131-449A-8072-5CB4B307F076}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:Z17"/>
+  <dimension ref="B1:AB17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C8:C12"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="16.140625" style="1"/>
+    <col min="3" max="25" width="16.140625" style="1"/>
+    <col min="26" max="26" width="1.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="16.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
@@ -786,8 +795,10 @@
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
     </row>
-    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -813,11 +824,13 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
     </row>
-    <row r="3" spans="2:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:28" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:28" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -891,10 +904,16 @@
         <v>52</v>
       </c>
       <c r="Z6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB6" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:28" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -938,12 +957,20 @@
         <f>COUNTIF(E7:X7,"ok")</f>
         <v>5</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z7" s="4">
+        <f>LARGE($Y$7:$Y$15,1)</f>
+        <v>8</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>Z7-Y7</f>
+        <v>3</v>
+      </c>
+      <c r="AB7" s="7">
         <f>Y7/20</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -972,7 +999,9 @@
       <c r="K8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -987,14 +1016,22 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4">
         <f t="shared" ref="Y8:Y15" si="0">COUNTIF(E8:X8,"ok")</f>
-        <v>6</v>
-      </c>
-      <c r="Z8" s="7">
-        <f t="shared" ref="Z8:Z15" si="1">Y8/20</f>
-        <v>0.3</v>
+        <v>7</v>
+      </c>
+      <c r="Z8" s="4">
+        <f t="shared" ref="Z8:Z15" si="1">LARGE($Y$7:$Y$15,1)</f>
+        <v>8</v>
+      </c>
+      <c r="AA8" s="4">
+        <f t="shared" ref="AA8:AA15" si="2">Z8-Y8</f>
+        <v>1</v>
+      </c>
+      <c r="AB8" s="7">
+        <f t="shared" ref="AB8:AB14" si="3">Y8/20</f>
+        <v>0.35</v>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:28" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1030,12 +1067,20 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="Z9" s="4">
         <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AA9" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AB9" s="7">
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:28" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1083,12 +1128,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="Z10" s="4">
         <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AA10" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB10" s="7">
+        <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1119,7 +1172,9 @@
       <c r="K11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1134,14 +1189,22 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Z11" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="4">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>8</v>
+      </c>
+      <c r="AA11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="7">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1172,7 +1235,9 @@
       <c r="K12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1187,14 +1252,22 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Z12" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="4">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>8</v>
+      </c>
+      <c r="AA12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="7">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1219,7 +1292,9 @@
         <v>31</v>
       </c>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1234,14 +1309,22 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Z13" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="4">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>8</v>
+      </c>
+      <c r="AA13" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AB13" s="7">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:28" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1285,12 +1368,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Z14" s="7">
+      <c r="Z14" s="4">
         <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AA14" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AB14" s="7">
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1311,7 +1402,9 @@
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="L15" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1326,14 +1419,22 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Z15" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="4">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>8</v>
+      </c>
+      <c r="AA15" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AB15" s="7">
+        <f>Y15/20</f>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="2:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1358,19 +1459,21 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="7"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="7"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B6:Z15" xr:uid="{A7CF0FF9-8B01-48A5-A2F3-876BF07E5A20}">
-    <filterColumn colId="9">
+  <autoFilter ref="B6:AB15" xr:uid="{A7CF0FF9-8B01-48A5-A2F3-876BF07E5A20}">
+    <filterColumn colId="10">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="B1:Z2"/>
+    <mergeCell ref="B1:AB2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" xr:uid="{EB87231A-5FDC-498C-95A0-F031E3DA1F9C}"/>

--- a/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
+++ b/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Alunos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Alunos!$B$6:$AB$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Alunos!$B$6:$AB$14</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>Nome</t>
   </si>
@@ -40,9 +40,6 @@
     <t>ANDRE LUIGGI DE MORAES MATSUSHIMA</t>
   </si>
   <si>
-    <t>CAIO VINICIUS CHARLOIS</t>
-  </si>
-  <si>
     <t>DALILA CAROLINE ALMEIDA DE BASTO</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>99732-9888</t>
   </si>
   <si>
-    <t>97528-1295</t>
-  </si>
-  <si>
     <t>99603-3802</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
   </si>
   <si>
     <t>andre.matsushima@hotmail.com;</t>
-  </si>
-  <si>
-    <t>caiocharlois@hotmail.com;</t>
   </si>
   <si>
     <t>dalila.caroline@outlook.com;</t>
@@ -352,7 +343,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="4423509" y="0"/>
-          <a:ext cx="2145384" cy="361629"/>
+          <a:ext cx="1383384" cy="361629"/>
           <a:chOff x="9009915" y="332447"/>
           <a:chExt cx="3182085" cy="978406"/>
         </a:xfrm>
@@ -747,21 +738,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542D85D0-A131-449A-8072-5CB4B307F076}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:AB17"/>
+  <dimension ref="B1:AB16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
-    <col min="3" max="25" width="16.140625" style="1"/>
+    <col min="3" max="4" width="16.140625" style="1"/>
+    <col min="5" max="13" width="10.42578125" style="1" customWidth="1"/>
+    <col min="14" max="25" width="16.140625" style="1"/>
     <col min="26" max="26" width="1.28515625" style="1" customWidth="1"/>
     <col min="27" max="27" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="16.140625" style="1"/>
@@ -835,113 +827,115 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="7" spans="2:28" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="M7" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -955,11 +949,11 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4">
         <f>COUNTIF(E7:X7,"ok")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z7" s="4">
-        <f>LARGE($Y$7:$Y$15,1)</f>
-        <v>8</v>
+        <f>LARGE($Y$7:$Y$14,1)</f>
+        <v>9</v>
       </c>
       <c r="AA7" s="4">
         <f>Z7-Y7</f>
@@ -967,7 +961,7 @@
       </c>
       <c r="AB7" s="7">
         <f>Y7/20</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -975,34 +969,36 @@
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1015,43 +1011,57 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4">
-        <f t="shared" ref="Y8:Y15" si="0">COUNTIF(E8:X8,"ok")</f>
-        <v>7</v>
+        <f t="shared" ref="Y8:Y14" si="0">COUNTIF(E8:X8,"ok")</f>
+        <v>8</v>
       </c>
       <c r="Z8" s="4">
-        <f t="shared" ref="Z8:Z15" si="1">LARGE($Y$7:$Y$15,1)</f>
-        <v>8</v>
+        <f>LARGE($Y$7:$Y$14,1)</f>
+        <v>9</v>
       </c>
       <c r="AA8" s="4">
-        <f t="shared" ref="AA8:AA15" si="2">Z8-Y8</f>
+        <f t="shared" ref="AA8:AA14" si="1">Z8-Y8</f>
         <v>1</v>
       </c>
       <c r="AB8" s="7">
-        <f t="shared" ref="AB8:AB14" si="3">Y8/20</f>
-        <v>0.35</v>
+        <f t="shared" ref="AB8:AB13" si="2">Y8/20</f>
+        <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="M9" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1065,54 +1075,58 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Z9" s="4">
+        <f>LARGE($Y$7:$Y$14,1)</f>
+        <v>9</v>
+      </c>
+      <c r="AA9" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Z9" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AA9" s="4">
+      <c r="AB9" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AB9" s="7">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1126,19 +1140,19 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z10" s="4">
+        <f>LARGE($Y$7:$Y$14,1)</f>
+        <v>9</v>
+      </c>
+      <c r="AA10" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AA10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AB10" s="7">
-        <f t="shared" si="3"/>
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1146,36 +1160,38 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1189,19 +1205,19 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z11" s="4">
+        <f>LARGE($Y$7:$Y$14,1)</f>
+        <v>9</v>
+      </c>
+      <c r="AA11" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AA11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="7">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="12" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1209,36 +1225,32 @@
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K12" s="4"/>
       <c r="L12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1252,19 +1264,19 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z12" s="4">
+        <f>LARGE($Y$7:$Y$14,1)</f>
+        <v>9</v>
+      </c>
+      <c r="AA12" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AA12" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="7">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1272,30 +1284,32 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="J13" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K13" s="4"/>
-      <c r="L13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1309,50 +1323,48 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z13" s="4">
+        <f>LARGE($Y$7:$Y$14,1)</f>
+        <v>9</v>
+      </c>
+      <c r="AA13" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AA13" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AB13" s="7">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="2:28" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="L14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1366,45 +1378,33 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Z14" s="4">
+        <f>LARGE($Y$7:$Y$14,1)</f>
+        <v>9</v>
+      </c>
+      <c r="AA14" s="4">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="Z14" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AA14" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
       <c r="AB14" s="7">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
+        <f>Y14/20</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1417,76 +1417,28 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Z15" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AA15" s="4">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AB15" s="7">
-        <f>Y15/20</f>
-        <v>0.15</v>
-      </c>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="7"/>
     </row>
-    <row r="16" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="7"/>
-    </row>
-    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B6:AB15" xr:uid="{A7CF0FF9-8B01-48A5-A2F3-876BF07E5A20}">
-    <filterColumn colId="10">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B6:AB14" xr:uid="{A7CF0FF9-8B01-48A5-A2F3-876BF07E5A20}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:AB2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" xr:uid="{EB87231A-5FDC-498C-95A0-F031E3DA1F9C}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{AD1559AE-E335-4D0A-B6EE-AACA98BD5CD9}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{C1B3A247-F6F1-4F7A-A98A-C7FD73504C8A}"/>
-    <hyperlink ref="C11" r:id="rId4" xr:uid="{AE8DBC3D-B8B9-4A5A-8843-7B2E76F31FF7}"/>
-    <hyperlink ref="C12" r:id="rId5" xr:uid="{3077A7A0-399A-4B65-9C32-EF88E3D724F4}"/>
-    <hyperlink ref="C13" r:id="rId6" xr:uid="{6CAC7515-5E92-457F-B577-EF9450993196}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{BEB8ED9F-99D3-43CC-B133-36D73F655895}"/>
-    <hyperlink ref="C14" r:id="rId8" xr:uid="{BAD6259E-A1F3-4D11-B2E9-F190FD0891E9}"/>
-    <hyperlink ref="C15" r:id="rId9" xr:uid="{E2ADDB2C-915D-48C2-9447-7036F7196E04}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{C1B3A247-F6F1-4F7A-A98A-C7FD73504C8A}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{AE8DBC3D-B8B9-4A5A-8843-7B2E76F31FF7}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{3077A7A0-399A-4B65-9C32-EF88E3D724F4}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{6CAC7515-5E92-457F-B577-EF9450993196}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{BEB8ED9F-99D3-43CC-B133-36D73F655895}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{BAD6259E-A1F3-4D11-B2E9-F190FD0891E9}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{E2ADDB2C-915D-48C2-9447-7036F7196E04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
+++ b/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
   <si>
     <t>Nome</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Aulas</t>
+  </si>
+  <si>
+    <t>Prova 1</t>
   </si>
 </sst>
 </file>
@@ -283,7 +286,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -295,6 +298,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -738,13 +742,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542D85D0-A131-449A-8072-5CB4B307F076}">
-  <dimension ref="B1:AB16"/>
+  <dimension ref="B1:AC16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="Z8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +763,7 @@
     <col min="28" max="16384" width="16.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
@@ -790,7 +794,7 @@
       <c r="AA1" s="8"/>
       <c r="AB1" s="8"/>
     </row>
-    <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -819,10 +823,10 @@
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
     </row>
-    <row r="3" spans="2:28" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:28" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:29" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:29" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -904,8 +908,11 @@
       <c r="AB6" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="AC6" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="7" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -936,7 +943,9 @@
       <c r="M7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -949,11 +958,11 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4">
         <f>COUNTIF(E7:X7,"ok")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z7" s="4">
-        <f>LARGE($Y$7:$Y$14,1)</f>
-        <v>9</v>
+        <f t="shared" ref="Z7:Z14" si="0">LARGE($Y$7:$Y$14,1)</f>
+        <v>10</v>
       </c>
       <c r="AA7" s="4">
         <f>Z7-Y7</f>
@@ -961,10 +970,13 @@
       </c>
       <c r="AB7" s="7">
         <f>Y7/20</f>
-        <v>0.3</v>
+        <v>0.35</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>90</v>
       </c>
     </row>
-    <row r="8" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -999,7 +1011,9 @@
       <c r="M8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1011,23 +1025,26 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4">
-        <f t="shared" ref="Y8:Y14" si="0">COUNTIF(E8:X8,"ok")</f>
-        <v>8</v>
+        <f t="shared" ref="Y8:Y14" si="1">COUNTIF(E8:X8,"ok")</f>
+        <v>9</v>
       </c>
       <c r="Z8" s="4">
-        <f>LARGE($Y$7:$Y$14,1)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="AA8" s="4">
-        <f t="shared" ref="AA8:AA14" si="1">Z8-Y8</f>
+        <f t="shared" ref="AA8:AA14" si="2">Z8-Y8</f>
         <v>1</v>
       </c>
       <c r="AB8" s="7">
-        <f t="shared" ref="AB8:AB13" si="2">Y8/20</f>
-        <v>0.4</v>
+        <f t="shared" ref="AB8:AB13" si="3">Y8/20</f>
+        <v>0.45</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>98</v>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1062,7 +1079,9 @@
       <c r="M9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="4"/>
+      <c r="N9" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1074,23 +1093,26 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Z9" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Z9" s="4">
-        <f>LARGE($Y$7:$Y$14,1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB9" s="7">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>85</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1127,7 +1149,9 @@
       <c r="M10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="4"/>
+      <c r="N10" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1139,23 +1163,26 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Z10" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Z10" s="4">
-        <f>LARGE($Y$7:$Y$14,1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB10" s="7">
-        <f t="shared" si="2"/>
-        <v>0.45</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1192,7 +1219,9 @@
       <c r="M11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1204,23 +1233,26 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Z11" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Z11" s="4">
-        <f>LARGE($Y$7:$Y$14,1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB11" s="7">
-        <f t="shared" si="2"/>
-        <v>0.45</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1283,9 @@
       <c r="M12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1263,23 +1297,26 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Z12" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Z12" s="4">
-        <f>LARGE($Y$7:$Y$14,1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB12" s="7">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>92</v>
       </c>
     </row>
-    <row r="13" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1310,7 +1347,9 @@
       <c r="M13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="4"/>
+      <c r="N13" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1322,23 +1361,26 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Z13" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Z13" s="4">
-        <f>LARGE($Y$7:$Y$14,1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB13" s="7">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1377,23 +1419,26 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Z14" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Z14" s="4">
-        <f>LARGE($Y$7:$Y$14,1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA14" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="AB14" s="7">
         <f>Y14/20</f>
         <v>0.2</v>
       </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1422,7 +1467,7 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" spans="2:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="B6:AB14" xr:uid="{A7CF0FF9-8B01-48A5-A2F3-876BF07E5A20}"/>
   <mergeCells count="1">

--- a/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
+++ b/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Alunos" sheetId="2" r:id="rId2"/>
+    <sheet name="Alunos" sheetId="2" r:id="rId1"/>
+    <sheet name="Provas" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Alunos!$B$6:$AB$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Alunos!$B$6:$AB$14</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
-  <si>
-    <t>Nome</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="55">
   <si>
     <t>Turma 462 - Outubro 2017</t>
   </si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>Prova 1</t>
+  </si>
+  <si>
+    <t>Prova 2</t>
   </si>
 </sst>
 </file>
@@ -210,13 +210,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -229,6 +222,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -283,22 +283,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -721,34 +720,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542D85D0-A131-449A-8072-5CB4B307F076}">
-  <dimension ref="B1:AC16"/>
+  <dimension ref="B1:AB16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="Z8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AC9" sqref="AC9"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,9 +742,9 @@
     <col min="28" max="16384" width="16.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -794,7 +773,7 @@
       <c r="AA1" s="8"/>
       <c r="AB1" s="8"/>
     </row>
-    <row r="2" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -823,128 +802,125 @@
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
     </row>
-    <row r="3" spans="2:29" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:29" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:28" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:28" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -972,47 +948,44 @@
         <f>Y7/20</f>
         <v>0.35</v>
       </c>
-      <c r="AC7" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1040,47 +1013,44 @@
         <f t="shared" ref="AB8:AB13" si="3">Y8/20</f>
         <v>0.45</v>
       </c>
-      <c r="AC8" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1108,49 +1078,46 @@
         <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
-      <c r="AC9" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1178,49 +1145,46 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="AC10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1248,43 +1212,40 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="AC11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1312,43 +1273,40 @@
         <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
-      <c r="AC12" s="9">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1376,36 +1334,33 @@
         <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
-      <c r="AC13" s="9">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1434,11 +1389,8 @@
         <f>Y14/20</f>
         <v>0.2</v>
       </c>
-      <c r="AC14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1467,7 +1419,7 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="B6:AB14" xr:uid="{A7CF0FF9-8B01-48A5-A2F3-876BF07E5A20}"/>
   <mergeCells count="1">
@@ -1484,6 +1436,109 @@
     <hyperlink ref="C14" r:id="rId8" xr:uid="{E2ADDB2C-915D-48C2-9447-7036F7196E04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId9"/>
+  <drawing r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1216AF3C-2037-4688-83FC-CD62D2620906}">
+  <dimension ref="B1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>90</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>98</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>85</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>100</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>100</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>92</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>92</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
+++ b/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
   <si>
     <t>Turma 462 - Outubro 2017</t>
   </si>
@@ -721,13 +721,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542D85D0-A131-449A-8072-5CB4B307F076}">
+  <sheetPr codeName="Planilha1"/>
   <dimension ref="B1:AB16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +923,9 @@
       <c r="N7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="4"/>
+      <c r="O7" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -934,11 +937,11 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4">
         <f>COUNTIF(E7:X7,"ok")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" ref="Z7:Z14" si="0">LARGE($Y$7:$Y$14,1)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA7" s="4">
         <f>Z7-Y7</f>
@@ -946,7 +949,7 @@
       </c>
       <c r="AB7" s="7">
         <f>Y7/20</f>
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -987,7 +990,9 @@
       <c r="N8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="4"/>
+      <c r="O8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -999,11 +1004,11 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4">
         <f t="shared" ref="Y8:Y14" si="1">COUNTIF(E8:X8,"ok")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" ref="AA8:AA14" si="2">Z8-Y8</f>
@@ -1011,7 +1016,7 @@
       </c>
       <c r="AB8" s="7">
         <f t="shared" ref="AB8:AB13" si="3">Y8/20</f>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1052,7 +1057,9 @@
       <c r="N9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="4"/>
+      <c r="O9" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1064,11 +1071,11 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA9" s="4">
         <f t="shared" si="2"/>
@@ -1076,7 +1083,7 @@
       </c>
       <c r="AB9" s="7">
         <f t="shared" si="3"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1119,7 +1126,9 @@
       <c r="N10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="4"/>
+      <c r="O10" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1131,11 +1140,11 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="2"/>
@@ -1143,7 +1152,7 @@
       </c>
       <c r="AB10" s="7">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1186,7 +1195,9 @@
       <c r="N11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="4"/>
+      <c r="O11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -1198,11 +1209,11 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA11" s="4">
         <f t="shared" si="2"/>
@@ -1210,7 +1221,7 @@
       </c>
       <c r="AB11" s="7">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="12" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1258,9 @@
       <c r="N12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="4"/>
+      <c r="O12" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1259,11 +1272,11 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA12" s="4">
         <f t="shared" si="2"/>
@@ -1271,7 +1284,7 @@
       </c>
       <c r="AB12" s="7">
         <f t="shared" si="3"/>
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1308,7 +1321,9 @@
       <c r="N13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="4"/>
+      <c r="O13" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -1320,11 +1335,11 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z13" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA13" s="4">
         <f t="shared" si="2"/>
@@ -1332,7 +1347,7 @@
       </c>
       <c r="AB13" s="7">
         <f t="shared" si="3"/>
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1379,11 +1394,11 @@
       </c>
       <c r="Z14" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA14" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB14" s="7">
         <f>Y14/20</f>
@@ -1443,6 +1458,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1216AF3C-2037-4688-83FC-CD62D2620906}">
+  <sheetPr codeName="Planilha2"/>
   <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
+++ b/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="55">
   <si>
     <t>Turma 462 - Outubro 2017</t>
   </si>
@@ -725,10 +725,10 @@
   <dimension ref="B1:AB16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +926,9 @@
       <c r="O7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="4"/>
+      <c r="P7" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -937,11 +939,11 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4">
         <f>COUNTIF(E7:X7,"ok")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" ref="Z7:Z14" si="0">LARGE($Y$7:$Y$14,1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA7" s="4">
         <f>Z7-Y7</f>
@@ -949,7 +951,7 @@
       </c>
       <c r="AB7" s="7">
         <f>Y7/20</f>
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -993,7 +995,9 @@
       <c r="O8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="4"/>
+      <c r="P8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -1004,11 +1008,11 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4">
         <f t="shared" ref="Y8:Y14" si="1">COUNTIF(E8:X8,"ok")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" ref="AA8:AA14" si="2">Z8-Y8</f>
@@ -1016,7 +1020,7 @@
       </c>
       <c r="AB8" s="7">
         <f t="shared" ref="AB8:AB13" si="3">Y8/20</f>
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1075,11 +1079,11 @@
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA9" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB9" s="7">
         <f t="shared" si="3"/>
@@ -1129,7 +1133,9 @@
       <c r="O10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="4"/>
+      <c r="P10" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -1140,11 +1146,11 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="2"/>
@@ -1152,7 +1158,7 @@
       </c>
       <c r="AB10" s="7">
         <f t="shared" si="3"/>
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1198,7 +1204,9 @@
       <c r="O11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="4"/>
+      <c r="P11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -1209,11 +1217,11 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA11" s="4">
         <f t="shared" si="2"/>
@@ -1221,7 +1229,7 @@
       </c>
       <c r="AB11" s="7">
         <f t="shared" si="3"/>
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1261,7 +1269,9 @@
       <c r="O12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="4"/>
+      <c r="P12" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -1272,11 +1282,11 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA12" s="4">
         <f t="shared" si="2"/>
@@ -1284,7 +1294,7 @@
       </c>
       <c r="AB12" s="7">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="13" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1324,7 +1334,9 @@
       <c r="O13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="4"/>
+      <c r="P13" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -1335,11 +1347,11 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z13" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA13" s="4">
         <f t="shared" si="2"/>
@@ -1347,7 +1359,7 @@
       </c>
       <c r="AB13" s="7">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="14" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1394,11 +1406,11 @@
       </c>
       <c r="Z14" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA14" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB14" s="7">
         <f>Y14/20</f>

--- a/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
+++ b/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="55">
   <si>
     <t>Turma 462 - Outubro 2017</t>
   </si>
@@ -728,7 +728,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,9 @@
       <c r="P7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -939,11 +941,11 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4">
         <f>COUNTIF(E7:X7,"ok")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" ref="Z7:Z14" si="0">LARGE($Y$7:$Y$14,1)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA7" s="4">
         <f>Z7-Y7</f>
@@ -951,7 +953,7 @@
       </c>
       <c r="AB7" s="7">
         <f>Y7/20</f>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1012,11 +1014,11 @@
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" ref="AA8:AA14" si="2">Z8-Y8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB8" s="7">
         <f t="shared" ref="AB8:AB13" si="3">Y8/20</f>
@@ -1065,7 +1067,9 @@
         <v>27</v>
       </c>
       <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -1075,11 +1079,11 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA9" s="4">
         <f t="shared" si="2"/>
@@ -1087,7 +1091,7 @@
       </c>
       <c r="AB9" s="7">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1136,7 +1140,9 @@
       <c r="P10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -1146,11 +1152,11 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="2"/>
@@ -1158,7 +1164,7 @@
       </c>
       <c r="AB10" s="7">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1207,7 +1213,9 @@
       <c r="P11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1217,11 +1225,11 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA11" s="4">
         <f t="shared" si="2"/>
@@ -1229,7 +1237,7 @@
       </c>
       <c r="AB11" s="7">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="12" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1286,11 +1294,11 @@
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA12" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB12" s="7">
         <f t="shared" si="3"/>
@@ -1337,7 +1345,9 @@
       <c r="P13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="4"/>
+      <c r="Q13" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -1347,11 +1357,11 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z13" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA13" s="4">
         <f t="shared" si="2"/>
@@ -1359,7 +1369,7 @@
       </c>
       <c r="AB13" s="7">
         <f t="shared" si="3"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1406,11 +1416,11 @@
       </c>
       <c r="Z14" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA14" s="4">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB14" s="7">
         <f>Y14/20</f>

--- a/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
+++ b/Turma 462 - Outubro 2017/Alunos Turma 462.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="55">
   <si>
     <t>Turma 462 - Outubro 2017</t>
   </si>
@@ -728,7 +728,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +932,9 @@
       <c r="Q7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="4"/>
+      <c r="R7" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -941,11 +943,11 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4">
         <f>COUNTIF(E7:X7,"ok")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" ref="Z7:Z14" si="0">LARGE($Y$7:$Y$14,1)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA7" s="4">
         <f>Z7-Y7</f>
@@ -953,7 +955,7 @@
       </c>
       <c r="AB7" s="7">
         <f>Y7/20</f>
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1001,7 +1003,9 @@
         <v>27</v>
       </c>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="R8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -1010,11 +1014,11 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4">
         <f t="shared" ref="Y8:Y14" si="1">COUNTIF(E8:X8,"ok")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" ref="AA8:AA14" si="2">Z8-Y8</f>
@@ -1022,7 +1026,7 @@
       </c>
       <c r="AB8" s="7">
         <f t="shared" ref="AB8:AB13" si="3">Y8/20</f>
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1083,11 +1087,11 @@
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA9" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB9" s="7">
         <f t="shared" si="3"/>
@@ -1156,11 +1160,11 @@
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="7">
         <f t="shared" si="3"/>
@@ -1216,7 +1220,9 @@
       <c r="Q11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="4"/>
+      <c r="R11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
@@ -1225,11 +1231,11 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA11" s="4">
         <f t="shared" si="2"/>
@@ -1237,7 +1243,7 @@
       </c>
       <c r="AB11" s="7">
         <f t="shared" si="3"/>
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1281,7 +1287,9 @@
         <v>27</v>
       </c>
       <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="R12" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -1290,11 +1298,11 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA12" s="4">
         <f t="shared" si="2"/>
@@ -1302,7 +1310,7 @@
       </c>
       <c r="AB12" s="7">
         <f t="shared" si="3"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1348,7 +1356,9 @@
       <c r="Q13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="4"/>
+      <c r="R13" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
@@ -1357,11 +1367,11 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z13" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA13" s="4">
         <f t="shared" si="2"/>
@@ -1369,7 +1379,7 @@
       </c>
       <c r="AB13" s="7">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="14" spans="2:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1416,11 +1426,11 @@
       </c>
       <c r="Z14" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA14" s="4">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB14" s="7">
         <f>Y14/20</f>
